--- a/MSP-beaches_Minnetonka_raw.xlsx
+++ b/MSP-beaches_Minnetonka_raw.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschmit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2f9211f8cf31bf3/Documents/GitHub/MSP-beaches/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_68B008A15380CA7486AAB9F482BF4352537B2F22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ADF25D7-F11D-49E5-BB22-BCAD97CEE7DF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14685"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shady Oak Beach" sheetId="1" r:id="rId1"/>
     <sheet name="Libbs Lake Beach" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -335,7 +347,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -510,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -555,9 +567,6 @@
     <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,9 +580,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -605,9 +611,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,6 +624,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -902,39 +908,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="7" customWidth="1"/>
-    <col min="2" max="6" width="9.7109375" style="7" customWidth="1"/>
+    <col min="2" max="6" width="9.7265625" style="7" customWidth="1"/>
     <col min="7" max="7" width="16" style="7" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="61.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.54296875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="7"/>
+    <col min="10" max="10" width="61.7265625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-    </row>
-    <row r="2" spans="1:15" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+    </row>
+    <row r="2" spans="1:15" ht="41" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -966,7 +972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>41121</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>41794</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>41806</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>41822</v>
       </c>
@@ -1088,7 +1094,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>41850</v>
       </c>
@@ -1098,7 +1104,7 @@
       <c r="C7" s="11">
         <v>5.3</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="11">
         <v>200.5</v>
       </c>
       <c r="E7" s="11">
@@ -1121,14 +1127,14 @@
       <c r="J7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="37"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>42186</v>
       </c>
@@ -1165,7 +1171,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>42200</v>
       </c>
@@ -1184,7 +1190,7 @@
       <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <f t="shared" si="1"/>
         <v>808.23333333333323</v>
       </c>
@@ -1205,7 +1211,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>42521</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>73.2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>42550</v>
       </c>
@@ -1273,7 +1279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>42599</v>
       </c>
@@ -1307,7 +1313,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>42899</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>42927</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>42955</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>42962</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>43264</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>43292</v>
       </c>
@@ -1526,7 +1532,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>43321</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>43663</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>44032</v>
       </c>
@@ -1628,30 +1634,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>44056</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>1730</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>248</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="17">
         <v>2420</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <v>649</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="17">
         <v>104</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="18">
         <f t="shared" si="1"/>
         <v>1030.2</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <f t="shared" si="0"/>
         <v>587.6493190032129</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>44060</v>
       </c>
@@ -1681,11 +1687,11 @@
       <c r="F23" s="12">
         <v>345</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="18">
         <f t="shared" si="1"/>
         <v>259.7</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <f t="shared" si="0"/>
         <v>139.99284808231869</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>44062</v>
       </c>
@@ -1719,7 +1725,7 @@
         <f t="shared" si="1"/>
         <v>180.4</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="20">
         <f t="shared" si="0"/>
         <v>170.0282029236416</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>44067</v>
       </c>
@@ -1753,7 +1759,7 @@
         <f t="shared" si="1"/>
         <v>215.95999999999998</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="20">
         <f t="shared" si="0"/>
         <v>158.33428604171255</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>44070</v>
       </c>
@@ -1787,7 +1793,7 @@
         <f t="shared" si="1"/>
         <v>74.8</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="9">
         <f t="shared" si="0"/>
         <v>42.980134988578662</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>44362</v>
       </c>
@@ -1821,7 +1827,7 @@
         <f t="shared" si="1"/>
         <v>2.8250000000000002</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="9">
         <f t="shared" si="0"/>
         <v>2.14880398181083</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>44397</v>
       </c>
@@ -1855,7 +1861,7 @@
         <f t="shared" si="1"/>
         <v>3.56</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="9">
         <f t="shared" si="0"/>
         <v>2.4495917857242038</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>44418</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>44720</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>44755</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>44783</v>
       </c>
@@ -1995,7 +2001,7 @@
         <f t="shared" ref="G32:G37" si="2">AVERAGE(B32:F32)</f>
         <v>9.58</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="22">
         <f t="shared" ref="H32:H37" si="3">GEOMEAN(B32:F32)</f>
         <v>5.4005442028401944</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>45085</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>45113</v>
       </c>
@@ -2065,7 +2071,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>45141</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>45442</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>45470</v>
       </c>
@@ -2161,7 +2167,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>45498</v>
       </c>
@@ -2195,7 +2201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>45526</v>
       </c>
@@ -2205,10 +2211,10 @@
       <c r="C39" s="8">
         <v>88.2</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="23">
         <v>238</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="23">
         <v>276</v>
       </c>
       <c r="F39" s="8">
@@ -2218,7 +2224,7 @@
         <f>AVERAGE(B39:F39)</f>
         <v>176.64000000000001</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="31">
         <f>GEOMEAN(B39:F39)</f>
         <v>159.39677017960497</v>
       </c>
@@ -2232,7 +2238,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>45530</v>
       </c>
@@ -2242,20 +2248,20 @@
       <c r="C40" s="8">
         <v>126</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="23">
         <v>326</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="23">
         <v>387</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="23">
         <v>249</v>
       </c>
       <c r="G40" s="7">
         <f>AVERAGE(B40:F40)</f>
         <v>225.5</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="31">
         <f>GEOMEAN(B40:F40)</f>
         <v>173.3081995754128</v>
       </c>
@@ -2263,30 +2269,30 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>45533</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="23">
         <v>225</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="23">
         <v>291</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="23">
         <v>326</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="8">
         <v>33.6</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="23">
         <v>299</v>
       </c>
       <c r="G41" s="7">
         <f>AVERAGE(B41:F41)</f>
         <v>234.92</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="31">
         <f>GEOMEAN(B41:F41)</f>
         <v>184.61233467368456</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <v>45561</v>
       </c>
@@ -2345,39 +2351,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="23" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1"/>
-    <col min="12" max="14" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="19.7265625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="32.7265625" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-    </row>
-    <row r="2" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+    </row>
+    <row r="2" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2396,20 +2402,20 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>41121</v>
       </c>
@@ -2432,7 +2438,7 @@
         <f>AVERAGE(B3:F3)</f>
         <v>31.6</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="25">
         <f>GEOMEAN(B3:F3)</f>
         <v>13.685108578372635</v>
       </c>
@@ -2441,7 +2447,7 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>41794</v>
       </c>
@@ -2464,7 +2470,7 @@
         <f>AVERAGE(B4:F4)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="25">
         <f>GEOMEAN(B4:F4)</f>
         <v>1.8881750225898042</v>
       </c>
@@ -2473,7 +2479,7 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>41806</v>
       </c>
@@ -2496,7 +2502,7 @@
         <f>AVERAGE(B5:F5)</f>
         <v>18</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="25">
         <f>GEOMEAN(B5:F5)</f>
         <v>16.792601477371946</v>
       </c>
@@ -2505,7 +2511,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>41822</v>
       </c>
@@ -2528,7 +2534,7 @@
         <f>AVERAGE(B6:F6)</f>
         <v>6.6</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="25">
         <f>GEOMEAN(B6:F6)</f>
         <v>5.8603121031670433</v>
       </c>
@@ -2537,7 +2543,7 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>41850</v>
       </c>
@@ -2560,7 +2566,7 @@
         <f t="shared" ref="G7:G22" si="0">AVERAGE(B7:F7)</f>
         <v>3.56</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="25">
         <f>GEOMEAN(B7:F7)</f>
         <v>2.9824021589122713</v>
       </c>
@@ -2569,7 +2575,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>42186</v>
       </c>
@@ -2592,7 +2598,7 @@
         <f t="shared" si="0"/>
         <v>11.020000000000001</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="25">
         <f t="shared" ref="H8" si="1">GEOMEAN(B8:F8)</f>
         <v>10.654715765943845</v>
       </c>
@@ -2601,7 +2607,7 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>42200</v>
       </c>
@@ -2624,7 +2630,7 @@
         <f t="shared" si="0"/>
         <v>7.38</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="25">
         <f>GEOMEAN(B9:F9)</f>
         <v>5.9971528547587782</v>
       </c>
@@ -2632,16 +2638,16 @@
         <v>78.8</v>
       </c>
       <c r="J9" s="7"/>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="37"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>2016</v>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="37">
+        <v>42370</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -2649,7 +2655,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="28"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="14"/>
       <c r="J10" s="13" t="s">
         <v>21</v>
@@ -2661,7 +2667,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>42899</v>
       </c>
@@ -2684,7 +2690,7 @@
         <f t="shared" si="0"/>
         <v>19.2</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="25">
         <f t="shared" ref="H11:H22" si="2">GEOMEAN(B11:F11)</f>
         <v>17.714106705340885</v>
       </c>
@@ -2701,7 +2707,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>42927</v>
       </c>
@@ -2724,7 +2730,7 @@
         <f t="shared" si="0"/>
         <v>2.44</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="25">
         <f t="shared" si="2"/>
         <v>2.1940226584572007</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>42955</v>
       </c>
@@ -2758,7 +2764,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="25">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -2769,7 +2775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>43264</v>
       </c>
@@ -2792,7 +2798,7 @@
         <f t="shared" si="0"/>
         <v>29.439999999999998</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="25">
         <f>GEOMEAN(B14:F14)</f>
         <v>28.098224187792162</v>
       </c>
@@ -2803,7 +2809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>43292</v>
       </c>
@@ -2826,7 +2832,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="25">
         <f t="shared" si="2"/>
         <v>1.8612097182041991</v>
       </c>
@@ -2838,7 +2844,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>43321</v>
       </c>
@@ -2860,7 +2866,7 @@
       <c r="G16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="25" t="s">
         <v>34</v>
       </c>
       <c r="I16" s="8">
@@ -2870,7 +2876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>43663</v>
       </c>
@@ -2893,7 +2899,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="25">
         <f t="shared" si="2"/>
         <v>4.8723946183712954</v>
       </c>
@@ -2904,7 +2910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>44032</v>
       </c>
@@ -2927,7 +2933,7 @@
         <f t="shared" si="0"/>
         <v>5.86</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="25">
         <f t="shared" si="2"/>
         <v>5.6847321129281179</v>
       </c>
@@ -2938,7 +2944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>44056</v>
       </c>
@@ -2961,7 +2967,7 @@
         <f t="shared" si="0"/>
         <v>5.2200000000000006</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="25">
         <f t="shared" si="2"/>
         <v>5.0877660478927984</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>44362</v>
       </c>
@@ -2995,7 +3001,7 @@
         <f t="shared" si="0"/>
         <v>20.059999999999999</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="25">
         <f t="shared" si="2"/>
         <v>17.489300880924105</v>
       </c>
@@ -3003,7 +3009,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>44397</v>
       </c>
@@ -3026,7 +3032,7 @@
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="25">
         <f t="shared" si="2"/>
         <v>1.3195079107728942</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>44418</v>
       </c>
@@ -3060,7 +3066,7 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="25">
         <f t="shared" si="2"/>
         <v>3.0456975644555886</v>
       </c>
@@ -3068,7 +3074,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>44720</v>
       </c>
@@ -3091,7 +3097,7 @@
         <f>AVERAGE(B23:F23)</f>
         <v>4.8</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="25">
         <f>GEOMEAN(B23:F23)</f>
         <v>2.9325756597230361</v>
       </c>
@@ -3099,29 +3105,29 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>44755</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="23">
         <v>579</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="23">
         <v>727</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="23">
         <v>816</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="23">
         <v>921</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="23">
         <v>770</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="23">
         <v>763</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="27">
         <v>754</v>
       </c>
       <c r="I24" s="8">
@@ -3134,7 +3140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>44761</v>
       </c>
@@ -3157,7 +3163,7 @@
         <f t="shared" ref="G25:G30" si="3">AVERAGE(B25:F25)</f>
         <v>8.76</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="25">
         <f t="shared" ref="H25:H30" si="4">GEOMEAN(B25:F25)</f>
         <v>7.4513256178322758</v>
       </c>
@@ -3171,7 +3177,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>44783</v>
       </c>
@@ -3194,7 +3200,7 @@
         <f t="shared" si="3"/>
         <v>5.2799999999999994</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="25">
         <f t="shared" si="4"/>
         <v>4.7230352817450276</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>45086</v>
       </c>
@@ -3225,7 +3231,7 @@
         <f t="shared" si="3"/>
         <v>9.6</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="25">
         <f t="shared" si="4"/>
         <v>7.84175480744923</v>
       </c>
@@ -3233,7 +3239,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>45113</v>
       </c>
@@ -3256,7 +3262,7 @@
         <f t="shared" si="3"/>
         <v>3.28</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="25">
         <f t="shared" si="4"/>
         <v>2.9043093877162618</v>
       </c>
@@ -3264,7 +3270,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>45141</v>
       </c>
@@ -3287,7 +3293,7 @@
         <f t="shared" si="3"/>
         <v>5.46</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="25">
         <f t="shared" si="4"/>
         <v>4.7028266722651324</v>
       </c>
@@ -3295,7 +3301,7 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>45442</v>
       </c>
@@ -3318,7 +3324,7 @@
         <f t="shared" si="3"/>
         <v>9.9599999999999991</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="25">
         <f t="shared" si="4"/>
         <v>9.5844167557205715</v>
       </c>
@@ -3329,7 +3335,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>45470</v>
       </c>
@@ -3361,7 +3367,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>45498</v>
       </c>
@@ -3384,7 +3390,7 @@
         <f>AVERAGE(B32:F32)</f>
         <v>23.800000000000004</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="25">
         <f>GEOMEAN(B32:F32)</f>
         <v>23.618958233933078</v>
       </c>
@@ -3395,7 +3401,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>45526</v>
       </c>
@@ -3418,11 +3424,11 @@
         <f>AVERAGE(B33:F33)</f>
         <v>4.88</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="28">
         <f>GEOMEAN(B33:F33)</f>
         <v>3.9078852689999906</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="21">
         <v>74.3</v>
       </c>
     </row>
